--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="C3:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E15" activeCellId="1" sqref="E6 E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>type2Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitId</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +233,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -255,7 +270,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +285,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,14 +554,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L26"/>
+  <dimension ref="C3:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" activeCellId="1" sqref="E6 E15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="61.375" customWidth="1"/>
     <col min="5" max="5" width="66.5" customWidth="1"/>
     <col min="6" max="6" width="23.125" customWidth="1"/>
@@ -557,7 +574,7 @@
     <col min="12" max="12" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +605,11 @@
       <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +640,11 @@
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="M4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
@@ -652,8 +675,11 @@
       <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -684,8 +710,11 @@
       <c r="L6" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M6" s="6">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -714,8 +743,11 @@
       <c r="L7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M7" s="6">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -746,8 +778,11 @@
       <c r="L8" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M8" s="6">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -778,8 +813,11 @@
       <c r="L9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M9" s="6">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -808,8 +846,11 @@
       <c r="L10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M10" s="6">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>6</v>
       </c>
@@ -840,8 +881,11 @@
       <c r="L11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M11" s="6">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>7</v>
       </c>
@@ -872,8 +916,11 @@
       <c r="L12" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M12" s="6">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>8</v>
       </c>
@@ -902,8 +949,11 @@
       <c r="L13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M13" s="6">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>9</v>
       </c>
@@ -934,8 +984,11 @@
       <c r="L14" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M14" s="6">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -946,7 +999,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="5:12" ht="14.25" x14ac:dyDescent="0.15">

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="6615"/>
+    <workbookView windowWidth="22788" windowHeight="6612"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -66,6 +61,12 @@
     <t>攻击范围</t>
   </si>
   <si>
+    <t>UnitId</t>
+  </si>
+  <si>
+    <t>攻击动画时间（ms）</t>
+  </si>
+  <si>
     <t>prefab</t>
   </si>
   <si>
@@ -78,6 +79,12 @@
     <t>cost</t>
   </si>
   <si>
+    <t>type1Id</t>
+  </si>
+  <si>
+    <t>type2Id</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
@@ -87,105 +94,104 @@
     <t>attackRange</t>
   </si>
   <si>
+    <t>unitId</t>
+  </si>
+  <si>
+    <t>attacktime</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Champions/Fire Archer.prefab</t>
   </si>
   <si>
+    <t>GameAssets/Chess/Effects/Fire arrow.prefab</t>
+  </si>
+  <si>
+    <t>Fire Archer</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Champions/Fire Knight.prefab</t>
   </si>
   <si>
+    <t>Fire Knight</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Champions/Fire Wizzard.prefab</t>
   </si>
   <si>
+    <t>GameAssets/Chess/Effects/Fire Projectile.prefab</t>
+  </si>
+  <si>
+    <t>Fire Wizard</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Champions/Frost Archer.prefab</t>
   </si>
   <si>
+    <t>GameAssets/Chess/Effects/Frost Arrow.prefab</t>
+  </si>
+  <si>
+    <t>Frost Archer</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Champions/Frost Knight.prefab</t>
   </si>
   <si>
+    <t>Frost Knight</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Champions/Frost Wizzard.prefab</t>
   </si>
   <si>
+    <t>GameAssets/Chess/Effects/Frost Projectile.prefab</t>
+  </si>
+  <si>
+    <t>Frost Wizard</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Champions/Nature Archer.prefab</t>
   </si>
   <si>
+    <t>GameAssets/Chess/Effects/Earth Arrow.prefab</t>
+  </si>
+  <si>
+    <t>Nature Archer</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Champions/Nature knight.prefab</t>
   </si>
   <si>
+    <t>Nature Knight</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Champions/Nature wizzard.prefab</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Effects/Earth Arrow.prefab</t>
-  </si>
-  <si>
     <t>GameAssets/Chess/Effects/Earth Projectile.prefab</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Effects/Fire arrow.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Fire Projectile.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Frost Arrow.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Frost Projectile.prefab</t>
-  </si>
-  <si>
-    <t>Fire Archer</t>
-  </si>
-  <si>
-    <t>Fire Knight</t>
-  </si>
-  <si>
-    <t>Fire Wizard</t>
-  </si>
-  <si>
-    <t>Frost Archer</t>
-  </si>
-  <si>
-    <t>Frost Knight</t>
-  </si>
-  <si>
-    <t>Frost Wizard</t>
-  </si>
-  <si>
-    <t>Nature Archer</t>
-  </si>
-  <si>
-    <t>Nature Knight</t>
-  </si>
-  <si>
     <t>Nature Wizard</t>
-  </si>
-  <si>
-    <t>type1Id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>type2Id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,32 +222,155 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +383,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -263,42 +578,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -548,33 +1145,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="61.375" customWidth="1"/>
+    <col min="4" max="4" width="61.3796296296296" customWidth="1"/>
     <col min="5" max="5" width="66.5" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="23.1296296296296" customWidth="1"/>
+    <col min="7" max="7" width="13.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="15.6296296296296" customWidth="1"/>
+    <col min="9" max="9" width="21.1296296296296" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="15.1296296296296" customWidth="1"/>
     <col min="12" max="12" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="16.2" spans="3:14">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,92 +1202,101 @@
       <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="16.2" spans="3:14">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="16.2" spans="3:14">
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="3:14">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -708,22 +1314,25 @@
         <v>20</v>
       </c>
       <c r="L6" s="2">
-        <v>15</v>
-      </c>
-      <c r="M6" s="6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4">
         <v>1005</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="3:14">
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -743,22 +1352,25 @@
       <c r="L7" s="2">
         <v>2</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>1006</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="3:14">
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -778,22 +1390,25 @@
       <c r="L8" s="2">
         <v>10</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>1007</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="3:14">
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
@@ -811,18 +1426,21 @@
         <v>20</v>
       </c>
       <c r="L9" s="2">
-        <v>15</v>
-      </c>
-      <c r="M9" s="6">
+        <v>8</v>
+      </c>
+      <c r="M9" s="4">
         <v>1008</v>
       </c>
-    </row>
-    <row r="10" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="3:14">
       <c r="C10" s="2">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -846,22 +1464,25 @@
       <c r="L10" s="2">
         <v>2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <v>1009</v>
       </c>
-    </row>
-    <row r="11" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="3:14">
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
@@ -881,22 +1502,25 @@
       <c r="L11" s="2">
         <v>10</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="4">
         <v>1010</v>
       </c>
-    </row>
-    <row r="12" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="3:14">
       <c r="C12" s="2">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -914,22 +1538,25 @@
         <v>20</v>
       </c>
       <c r="L12" s="2">
-        <v>15</v>
-      </c>
-      <c r="M12" s="6">
+        <v>8</v>
+      </c>
+      <c r="M12" s="4">
         <v>1011</v>
       </c>
-    </row>
-    <row r="13" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="3:14">
       <c r="C13" s="2">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
@@ -949,22 +1576,25 @@
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <v>1012</v>
       </c>
-    </row>
-    <row r="14" spans="3:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="3:14">
       <c r="C14" s="2">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
@@ -984,11 +1614,14 @@
       <c r="L14" s="2">
         <v>10</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <v>1013</v>
       </c>
-    </row>
-    <row r="15" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -999,66 +1632,72 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="6:6">
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="5:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:12">
       <c r="F17" s="3"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="5:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:12">
       <c r="F18" s="3"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="5:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:12">
       <c r="F19" s="3"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="5:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:12">
       <c r="F20" s="3"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="5:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:12">
       <c r="F21" s="3"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="5:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="12:12">
       <c r="L22" s="2"/>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="E26" s="4"/>
+    <row r="26" spans="5:5">
+      <c r="E26" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -1154,7 +1154,7 @@
   <dimension ref="C3:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1320,7 +1320,7 @@
         <v>1005</v>
       </c>
       <c r="N6">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="3:14">
@@ -1350,13 +1350,13 @@
         <v>10</v>
       </c>
       <c r="L7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4">
         <v>1006</v>
       </c>
       <c r="N7">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="3:14">
@@ -1394,7 +1394,7 @@
         <v>1007</v>
       </c>
       <c r="N8">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="3:14">
@@ -1432,7 +1432,7 @@
         <v>1008</v>
       </c>
       <c r="N9">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="3:14">
@@ -1462,13 +1462,13 @@
         <v>10</v>
       </c>
       <c r="L10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="4">
         <v>1009</v>
       </c>
       <c r="N10">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="3:14">
@@ -1506,7 +1506,7 @@
         <v>1010</v>
       </c>
       <c r="N11">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="3:14">
@@ -1544,7 +1544,7 @@
         <v>1011</v>
       </c>
       <c r="N12">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="3:14">
@@ -1574,13 +1574,13 @@
         <v>10</v>
       </c>
       <c r="L13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="4">
         <v>1012</v>
       </c>
       <c r="N13">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="3:14">
@@ -1618,7 +1618,7 @@
         <v>1013</v>
       </c>
       <c r="N14">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="4:12">

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -1154,7 +1154,7 @@
   <dimension ref="C3:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" s="4">
         <v>1006</v>
@@ -1462,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" s="4">
         <v>1009</v>
@@ -1574,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" s="4">
         <v>1012</v>

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22788" windowHeight="6612"/>
+    <workbookView windowWidth="25776" windowHeight="6395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>攻击动画时间（ms）</t>
   </si>
   <si>
+    <t>移动范围</t>
+  </si>
+  <si>
     <t>prefab</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>attacktime</t>
+  </si>
+  <si>
+    <t>moveRange</t>
   </si>
   <si>
     <t>int</t>
@@ -1151,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N26"/>
+  <dimension ref="C3:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1169,9 +1175,11 @@
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="15.1296296296296" customWidth="1"/>
     <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="19.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:14">
+    <row r="3" ht="16.2" spans="3:15">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,95 +1216,104 @@
       <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="16.2" spans="3:14">
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="16.2" spans="3:15">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="16.2" spans="3:14">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="16.2" spans="3:15">
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="3:14">
+    <row r="6" ht="15.6" spans="3:15">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -1322,17 +1339,20 @@
       <c r="N6">
         <v>600</v>
       </c>
-    </row>
-    <row r="7" ht="15.6" spans="3:14">
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="3:15">
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -1358,19 +1378,22 @@
       <c r="N7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" ht="15.6" spans="3:14">
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="3:15">
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -1396,19 +1419,22 @@
       <c r="N8">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" ht="15.6" spans="3:14">
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="3:15">
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
@@ -1434,17 +1460,20 @@
       <c r="N9">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" ht="15.6" spans="3:14">
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="3:15">
       <c r="C10" s="2">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
@@ -1470,19 +1499,22 @@
       <c r="N10">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" ht="15.6" spans="3:14">
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="3:15">
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
@@ -1508,19 +1540,22 @@
       <c r="N11">
         <v>600</v>
       </c>
-    </row>
-    <row r="12" ht="15.6" spans="3:14">
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="3:15">
       <c r="C12" s="2">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -1546,17 +1581,20 @@
       <c r="N12">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" ht="15.6" spans="3:14">
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="3:15">
       <c r="C13" s="2">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
@@ -1582,19 +1620,22 @@
       <c r="N13">
         <v>500</v>
       </c>
-    </row>
-    <row r="14" ht="15.6" spans="3:14">
+      <c r="O13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="3:15">
       <c r="C14" s="2">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
@@ -1619,6 +1660,9 @@
       </c>
       <c r="N14">
         <v>600</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="4:12">

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25776" windowHeight="6395"/>
+    <workbookView windowWidth="12060" windowHeight="4452"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1159,8 +1159,8 @@
   <sheetPr/>
   <dimension ref="C3:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12060" windowHeight="4452"/>
+    <workbookView windowWidth="23100" windowHeight="7727"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1159,24 +1159,25 @@
   <sheetPr/>
   <dimension ref="C3:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="61.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="66.5" customWidth="1"/>
-    <col min="6" max="6" width="23.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="52.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="44.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="13.8796296296296" customWidth="1"/>
     <col min="8" max="8" width="15.6296296296296" customWidth="1"/>
-    <col min="9" max="9" width="21.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="15.1296296296296" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="14" max="14" width="19.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="12" max="12" width="9.77777777777778" customWidth="1"/>
+    <col min="14" max="14" width="11.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="13.1111111111111" customWidth="1"/>
+    <col min="16" max="16" width="28.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="16.2" spans="3:15">

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">攻击投射物 </t>
   </si>
   <si>
+    <t>飞行速度</t>
+  </si>
+  <si>
     <t>英雄名称</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>attackProjectile</t>
   </si>
   <si>
+    <t>projSpeed</t>
+  </si>
+  <si>
     <t>uiname</t>
   </si>
   <si>
@@ -110,6 +116,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>long</t>
@@ -1157,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:O26"/>
+  <dimension ref="C3:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1168,19 +1177,18 @@
     <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="52.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="44.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.8796296296296" customWidth="1"/>
-    <col min="8" max="8" width="15.6296296296296" customWidth="1"/>
-    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.1296296296296" customWidth="1"/>
-    <col min="12" max="12" width="9.77777777777778" customWidth="1"/>
-    <col min="14" max="14" width="11.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="13.1111111111111" customWidth="1"/>
-    <col min="16" max="16" width="28.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.8796296296296" customWidth="1"/>
+    <col min="9" max="9" width="15.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="11.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="15.1296296296296" customWidth="1"/>
+    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
+    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="13.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:15">
+    <row r="3" ht="16.2" spans="3:16">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,488 +1228,515 @@
       <c r="O3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="16.2" spans="3:15">
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="16.2" spans="3:16">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="16.2" spans="3:15">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="16.2" spans="3:16">
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="3:15">
+        <v>30</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="3:16">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>200</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>20</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>8</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>1005</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>600</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="3:15">
+    <row r="7" ht="15.6" spans="3:16">
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>300</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>10</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>3</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>1006</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>500</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="3:15">
+    <row r="8" ht="15.6" spans="3:16">
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2">
         <v>3</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>150</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>20</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>10</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>1007</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>600</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="3:15">
+    <row r="9" ht="15.6" spans="3:16">
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
       <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>200</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>20</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>8</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>1008</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>600</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="3:15">
+    <row r="10" ht="15.6" spans="3:16">
       <c r="C10" s="2">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H10" s="2">
         <v>3</v>
       </c>
       <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
         <v>4</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>300</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>10</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>3</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>1009</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>500</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="3:15">
+    <row r="11" ht="15.6" spans="3:16">
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
       </c>
       <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
         <v>6</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>150</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>20</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>10</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>1010</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>600</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="3:15">
+    <row r="12" ht="15.6" spans="3:16">
       <c r="C12" s="2">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="2">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>5</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>200</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>20</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>8</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>1011</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>600</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="3:15">
+    <row r="13" ht="15.6" spans="3:16">
       <c r="C13" s="2">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>5</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>4</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>300</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>10</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>3</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>1012</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>500</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="3:15">
+    <row r="14" ht="15.6" spans="3:16">
       <c r="C14" s="2">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="2">
+        <v>53</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="2">
         <v>3</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>5</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>6</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>150</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>20</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>10</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>1013</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>600</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:12">
+    <row r="15" spans="4:13">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="6:12">
-      <c r="F17" s="3"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="6:12">
-      <c r="F18" s="3"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="6:12">
-      <c r="F19" s="3"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="6:12">
-      <c r="F20" s="3"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="6:12">
-      <c r="F21" s="3"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="12:12">
-      <c r="L22" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="7:13">
+      <c r="G17" s="3"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="7:13">
+      <c r="G18" s="3"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="7:13">
+      <c r="G19" s="3"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="7:13">
+      <c r="G20" s="3"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="7:13">
+      <c r="G21" s="3"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="13:13">
+      <c r="M22" s="2"/>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="3"/>

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23100" windowHeight="7727"/>
+    <workbookView windowWidth="26880" windowHeight="12684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -70,6 +70,9 @@
     <t>攻击动画时间（ms）</t>
   </si>
   <si>
+    <t>攻击总动画时间（ms）</t>
+  </si>
+  <si>
     <t>移动范围</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>attacktime</t>
   </si>
   <si>
+    <t>allAttacktime</t>
+  </si>
+  <si>
     <t>moveRange</t>
   </si>
   <si>
@@ -124,7 +130,7 @@
     <t>long</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Champions/Fire Archer.prefab</t>
+    <t>GameAssets/Character/Prefabs/ArcherA.prefab</t>
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Fire arrow.prefab</t>
@@ -133,13 +139,13 @@
     <t>Fire Archer</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Champions/Fire Knight.prefab</t>
+    <t>GameAssets/Character/Prefabs/InfantryA.prefab</t>
   </si>
   <si>
     <t>Fire Knight</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Champions/Fire Wizzard.prefab</t>
+    <t>GameAssets/Character/Prefabs/MegaA.prefab</t>
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Fire Projectile.prefab</t>
@@ -148,7 +154,7 @@
     <t>Fire Wizard</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Champions/Frost Archer.prefab</t>
+    <t>GameAssets/Character/Prefabs/ArcherB.prefab</t>
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Frost Arrow.prefab</t>
@@ -157,43 +163,19 @@
     <t>Frost Archer</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Champions/Frost Knight.prefab</t>
+    <t>GameAssets/Character/Prefabs/InfantryB.prefab</t>
   </si>
   <si>
     <t>Frost Knight</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Champions/Frost Wizzard.prefab</t>
+    <t>GameAssets/Character/Prefabs/MegaB.prefab</t>
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Frost Projectile.prefab</t>
   </si>
   <si>
     <t>Frost Wizard</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Champions/Nature Archer.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Earth Arrow.prefab</t>
-  </si>
-  <si>
-    <t>Nature Archer</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Champions/Nature knight.prefab</t>
-  </si>
-  <si>
-    <t>Nature Knight</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Champions/Nature wizzard.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Earth Projectile.prefab</t>
-  </si>
-  <si>
-    <t>Nature Wizard</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P26"/>
+  <dimension ref="C3:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1184,11 +1166,11 @@
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="15.1296296296296" customWidth="1"/>
     <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
-    <col min="15" max="15" width="11.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="13.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="25.5" customWidth="1"/>
+    <col min="16" max="16" width="14.1018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:16">
+    <row r="3" ht="16.2" spans="3:17">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,110 +1213,119 @@
       <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="16.2" spans="3:16">
+      <c r="Q3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="16.2" spans="3:17">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" ht="16.2" spans="3:16">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="16.2" spans="3:17">
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="3:16">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="3:17">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -1358,22 +1349,25 @@
         <v>1005</v>
       </c>
       <c r="O6">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="P6">
+        <v>1333</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="3:16">
+    <row r="7" ht="15.6" spans="3:17">
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1397,27 +1391,30 @@
         <v>1006</v>
       </c>
       <c r="O7">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="P7">
+        <v>1333</v>
+      </c>
+      <c r="Q7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="3:16">
+    <row r="8" ht="15.6" spans="3:17">
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -1441,27 +1438,30 @@
         <v>1007</v>
       </c>
       <c r="O8">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="P8">
+        <v>1333</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="3:16">
+    <row r="9" ht="15.6" spans="3:17">
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
@@ -1485,22 +1485,25 @@
         <v>1008</v>
       </c>
       <c r="O9">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="P9">
+        <v>1333</v>
+      </c>
+      <c r="Q9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="3:16">
+    <row r="10" ht="15.6" spans="3:17">
       <c r="C10" s="2">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2">
         <v>3</v>
@@ -1524,27 +1527,30 @@
         <v>1009</v>
       </c>
       <c r="O10">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="P10">
+        <v>1333</v>
+      </c>
+      <c r="Q10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="3:16">
+    <row r="11" ht="15.6" spans="3:17">
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
@@ -1568,138 +1574,54 @@
         <v>1010</v>
       </c>
       <c r="O11">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="P11">
+        <v>1333</v>
+      </c>
+      <c r="Q11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="3:16">
-      <c r="C12" s="2">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>200</v>
-      </c>
-      <c r="L12" s="2">
-        <v>20</v>
-      </c>
-      <c r="M12" s="2">
-        <v>8</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1011</v>
-      </c>
-      <c r="O12">
-        <v>600</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="3:16">
-      <c r="C13" s="2">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
+    <row r="12" ht="15.6" spans="3:14">
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" ht="15.6" spans="3:14">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2">
-        <v>4</v>
-      </c>
-      <c r="K13" s="2">
-        <v>300</v>
-      </c>
-      <c r="L13" s="2">
-        <v>10</v>
-      </c>
-      <c r="M13" s="2">
-        <v>3</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1012</v>
-      </c>
-      <c r="O13">
-        <v>500</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="15.6" spans="3:16">
-      <c r="C14" s="2">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5</v>
-      </c>
-      <c r="J14" s="2">
-        <v>6</v>
-      </c>
-      <c r="K14" s="2">
-        <v>150</v>
-      </c>
-      <c r="L14" s="2">
-        <v>20</v>
-      </c>
-      <c r="M14" s="2">
-        <v>10</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1013</v>
-      </c>
-      <c r="O14">
-        <v>600</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" ht="15.6" spans="3:14">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="4:13">
       <c r="D15" s="2"/>

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="26880" windowHeight="12684"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -181,14 +186,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,174 +199,40 @@
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,194 +245,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -575,324 +254,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1142,35 +535,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="52.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="44.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="52.25" customWidth="1"/>
+    <col min="5" max="5" width="44.375" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.8796296296296" customWidth="1"/>
-    <col min="9" max="9" width="15.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="11.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.1296296296296" customWidth="1"/>
-    <col min="13" max="13" width="9.77777777777778" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
-    <col min="16" max="16" width="14.1018518518519" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:17">
+    <row r="3" spans="3:17" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="16.2" spans="3:17">
+    <row r="4" spans="3:17" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" ht="16.2" spans="3:17">
+    <row r="5" spans="3:17" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1311,7 +705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="3:17">
+    <row r="6" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1337,10 +731,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M6" s="2">
         <v>8</v>
@@ -1358,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="3:17">
+    <row r="7" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -1379,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="K7" s="2">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="L7" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M7" s="2">
         <v>3</v>
@@ -1400,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="3:17">
+    <row r="8" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -1426,10 +820,10 @@
         <v>2</v>
       </c>
       <c r="K8" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
         <v>10</v>
@@ -1447,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="3:17">
+    <row r="9" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -1473,10 +867,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="L9" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M9" s="2">
         <v>8</v>
@@ -1494,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="3:17">
+    <row r="10" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -1515,10 +909,10 @@
         <v>4</v>
       </c>
       <c r="K10" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L10" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M10" s="2">
         <v>3</v>
@@ -1536,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="3:17">
+    <row r="11" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>6</v>
       </c>
@@ -1562,10 +956,10 @@
         <v>6</v>
       </c>
       <c r="K11" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L11" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M11" s="2">
         <v>10</v>
@@ -1583,10 +977,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="3:14">
+    <row r="12" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1596,7 +989,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" ht="15.6" spans="3:14">
+    <row r="13" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1609,11 +1002,10 @@
       <c r="M13" s="2"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" ht="15.6" spans="3:14">
+    <row r="14" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1623,7 +1015,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="4:13">
+    <row r="15" spans="3:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="2"/>
@@ -1634,72 +1026,66 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="7:7">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.15">
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="7:13">
+    <row r="17" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G17" s="3"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="7:13">
+    <row r="18" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G18" s="3"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="7:13">
+    <row r="19" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G19" s="3"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="7:13">
+    <row r="20" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G20" s="3"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="7:13">
+    <row r="21" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G21" s="3"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="13:13">
+    <row r="22" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="M22" s="2"/>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E26" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -212,6 +212,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,11 +226,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -543,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,7 +728,7 @@
         <v>35</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -731,13 +737,13 @@
         <v>2</v>
       </c>
       <c r="K6" s="2">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="L6" s="2">
+        <v>250</v>
+      </c>
+      <c r="M6" s="2">
         <v>10</v>
-      </c>
-      <c r="M6" s="2">
-        <v>8</v>
       </c>
       <c r="N6" s="4">
         <v>1005</v>
@@ -749,7 +755,7 @@
         <v>1333</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
@@ -764,7 +770,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2">
         <v>2</v>
@@ -773,10 +779,10 @@
         <v>4</v>
       </c>
       <c r="K7" s="2">
-        <v>60</v>
+        <v>6500</v>
       </c>
       <c r="L7" s="2">
-        <v>20</v>
+        <v>550</v>
       </c>
       <c r="M7" s="2">
         <v>3</v>
@@ -791,7 +797,7 @@
         <v>1333</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
@@ -811,7 +817,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
@@ -820,13 +826,13 @@
         <v>2</v>
       </c>
       <c r="K8" s="2">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="L8" s="2">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="M8" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N8" s="4">
         <v>1007</v>
@@ -867,13 +873,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>110</v>
+        <v>3000</v>
       </c>
       <c r="L9" s="2">
+        <v>260</v>
+      </c>
+      <c r="M9" s="2">
         <v>10</v>
-      </c>
-      <c r="M9" s="2">
-        <v>8</v>
       </c>
       <c r="N9" s="4">
         <v>1008</v>
@@ -885,7 +891,7 @@
         <v>1333</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
@@ -900,7 +906,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2">
         <v>3</v>
@@ -909,10 +915,10 @@
         <v>4</v>
       </c>
       <c r="K10" s="2">
-        <v>150</v>
+        <v>7500</v>
       </c>
       <c r="L10" s="2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="M10" s="2">
         <v>3</v>
@@ -947,7 +953,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2">
         <v>3</v>
@@ -956,13 +962,13 @@
         <v>6</v>
       </c>
       <c r="K11" s="2">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="L11" s="2">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="M11" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N11" s="4">
         <v>1010</v>
@@ -1026,8 +1032,9 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G16" s="3"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G17" s="3"/>

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="12690"/>
+    <workbookView windowWidth="16404" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -138,7 +133,7 @@
     <t>GameAssets/Character/Prefabs/ArcherA.prefab</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Effects/Fire arrow.prefab</t>
+    <t>GameAssets/Chess/Effects/Projectile 13 arraw.prefab</t>
   </si>
   <si>
     <t>Fire Archer</t>
@@ -153,7 +148,7 @@
     <t>GameAssets/Character/Prefabs/MegaA.prefab</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Effects/Fire Projectile.prefab</t>
+    <t>GameAssets/Chess/Effects/Projectile 2 leidian.prefab</t>
   </si>
   <si>
     <t>Fire Wizard</t>
@@ -162,9 +157,6 @@
     <t>GameAssets/Character/Prefabs/ArcherB.prefab</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Effects/Frost Arrow.prefab</t>
-  </si>
-  <si>
     <t>Frost Archer</t>
   </si>
   <si>
@@ -175,9 +167,6 @@
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/MegaB.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Frost Projectile.prefab</t>
   </si>
   <si>
     <t>Frost Wizard</t>
@@ -186,8 +175,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,20 +194,19 @@
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,25 +214,154 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +374,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -260,38 +569,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -541,36 +1136,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="52.25" customWidth="1"/>
-    <col min="5" max="5" width="44.375" customWidth="1"/>
+    <col min="5" max="5" width="44.3796296296296" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="13.8796296296296" customWidth="1"/>
+    <col min="9" max="9" width="15.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="11.1296296296296" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="15.1296296296296" customWidth="1"/>
     <col min="13" max="13" width="9.75" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
-    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="14.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="16.2" spans="3:17">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="16.2" spans="3:17">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +1259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" ht="16.2" spans="3:17">
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
@@ -711,7 +1306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="15.6" spans="3:17">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -758,7 +1353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" ht="15.6" spans="3:17">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -800,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.6" spans="3:17">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -847,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" ht="15.6" spans="3:17">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -855,13 +1450,13 @@
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
@@ -894,16 +1489,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" ht="15.6" spans="3:17">
       <c r="C10" s="2">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -936,21 +1531,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" ht="15.6" spans="3:17">
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2">
         <v>9</v>
@@ -983,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" ht="15.6" spans="3:14">
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="2"/>
@@ -995,7 +1590,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" ht="15.6" spans="3:14">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1008,7 +1603,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="3:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" ht="15.6" spans="3:14">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1021,7 +1616,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="3:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:13">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="2"/>
@@ -1032,67 +1627,73 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="3:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="7:11">
       <c r="G16" s="3"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:13">
       <c r="G17" s="3"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="7:13">
       <c r="G18" s="3"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:13">
       <c r="G19" s="3"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="7:13">
       <c r="G20" s="3"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="7:13">
       <c r="G21" s="3"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="5:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="13:13">
       <c r="M22" s="2"/>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:5">
       <c r="E26" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16404" windowHeight="9444"/>
+    <workbookView windowWidth="26028" windowHeight="12684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -76,6 +76,21 @@
     <t>移动范围</t>
   </si>
   <si>
+    <t>基础属性列表</t>
+  </si>
+  <si>
+    <t>基础属性数值</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>大招</t>
+  </si>
+  <si>
+    <t>被动技能列表</t>
+  </si>
+  <si>
     <t>prefab</t>
   </si>
   <si>
@@ -118,6 +133,21 @@
     <t>moveRange</t>
   </si>
   <si>
+    <t>attrNames</t>
+  </si>
+  <si>
+    <t>attrValues</t>
+  </si>
+  <si>
+    <t>normId</t>
+  </si>
+  <si>
+    <t>superId</t>
+  </si>
+  <si>
+    <t>psSkills</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -130,6 +160,12 @@
     <t>long</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>GameAssets/Character/Prefabs/ArcherA.prefab</t>
   </si>
   <si>
@@ -139,12 +175,24 @@
     <t>Fire Archer</t>
   </si>
   <si>
+    <t>ATKBase,MaxHpBase</t>
+  </si>
+  <si>
+    <t>250, 3000</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
     <t>GameAssets/Character/Prefabs/InfantryA.prefab</t>
   </si>
   <si>
     <t>Fire Knight</t>
   </si>
   <si>
+    <t>550, 6500</t>
+  </si>
+  <si>
     <t>GameAssets/Character/Prefabs/MegaA.prefab</t>
   </si>
   <si>
@@ -154,22 +202,34 @@
     <t>Fire Wizard</t>
   </si>
   <si>
+    <t>800, 10000</t>
+  </si>
+  <si>
     <t>GameAssets/Character/Prefabs/ArcherB.prefab</t>
   </si>
   <si>
     <t>Frost Archer</t>
   </si>
   <si>
+    <t>260, 3000</t>
+  </si>
+  <si>
     <t>GameAssets/Character/Prefabs/InfantryB.prefab</t>
   </si>
   <si>
     <t>Frost Knight</t>
   </si>
   <si>
+    <t>600, 7500</t>
+  </si>
+  <si>
     <t>GameAssets/Character/Prefabs/MegaB.prefab</t>
   </si>
   <si>
     <t>Frost Wizard</t>
+  </si>
+  <si>
+    <t>1000, 12000</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Q26"/>
+  <dimension ref="C3:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1162,10 +1222,13 @@
     <col min="12" max="12" width="15.1296296296296" customWidth="1"/>
     <col min="13" max="13" width="9.75" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
-    <col min="16" max="16" width="14.1296296296296" customWidth="1"/>
+    <col min="16" max="16" width="18.8240740740741" customWidth="1"/>
+    <col min="18" max="18" width="29.537037037037" customWidth="1"/>
+    <col min="19" max="19" width="14.1111111111111" customWidth="1"/>
+    <col min="20" max="20" width="11.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:17">
+    <row r="3" ht="16.2" spans="3:22">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,116 +1274,161 @@
       <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" ht="16.2" spans="3:17">
+      <c r="R3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="16.2" spans="3:22">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="16.2" spans="3:17">
+        <v>33</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="16.2" spans="3:22">
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="3:17">
+        <v>39</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="3:22">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1352,17 +1460,29 @@
       <c r="Q6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" ht="15.6" spans="3:17">
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="3:22">
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
@@ -1394,22 +1514,34 @@
       <c r="Q7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" ht="15.6" spans="3:17">
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="V7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="3:22">
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2">
         <v>8</v>
@@ -1441,22 +1573,34 @@
       <c r="Q8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" ht="15.6" spans="3:17">
+      <c r="R8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="3:22">
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
@@ -1488,17 +1632,29 @@
       <c r="Q9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" ht="15.6" spans="3:17">
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="V9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="3:22">
       <c r="C10" s="2">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -1530,22 +1686,34 @@
       <c r="Q10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" ht="15.6" spans="3:17">
+      <c r="R10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="V10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="3:22">
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2">
         <v>9</v>
@@ -1576,6 +1744,18 @@
       </c>
       <c r="Q11">
         <v>2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="V11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="3:14">

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -1205,7 +1205,7 @@
   <dimension ref="C3:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1469,6 +1469,9 @@
       <c r="T6">
         <v>1</v>
       </c>
+      <c r="U6">
+        <v>7</v>
+      </c>
       <c r="V6" t="s">
         <v>50</v>
       </c>
@@ -1523,6 +1526,9 @@
       <c r="T7">
         <v>2</v>
       </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
       <c r="V7" t="s">
         <v>50</v>
       </c>
@@ -1582,6 +1588,9 @@
       <c r="T8">
         <v>3</v>
       </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
       <c r="V8" t="s">
         <v>50</v>
       </c>
@@ -1641,6 +1650,9 @@
       <c r="T9">
         <v>4</v>
       </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
       <c r="V9" t="s">
         <v>50</v>
       </c>
@@ -1695,6 +1707,9 @@
       <c r="T10">
         <v>5</v>
       </c>
+      <c r="U10">
+        <v>11</v>
+      </c>
       <c r="V10" t="s">
         <v>50</v>
       </c>
@@ -1753,6 +1768,9 @@
       </c>
       <c r="T11">
         <v>6</v>
+      </c>
+      <c r="U11">
+        <v>12</v>
       </c>
       <c r="V11" t="s">
         <v>50</v>

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26028" windowHeight="12684"/>
+    <workbookView windowWidth="21000" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -37,12 +37,6 @@
     <t xml:space="preserve">英雄预制件 </t>
   </si>
   <si>
-    <t xml:space="preserve">攻击投射物 </t>
-  </si>
-  <si>
-    <t>飞行速度</t>
-  </si>
-  <si>
     <t>英雄名称</t>
   </si>
   <si>
@@ -55,24 +49,9 @@
     <t>副羁绊类型</t>
   </si>
   <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 攻击力</t>
-  </si>
-  <si>
-    <t>攻击范围</t>
-  </si>
-  <si>
     <t>UnitId</t>
   </si>
   <si>
-    <t>攻击动画时间（ms）</t>
-  </si>
-  <si>
-    <t>攻击总动画时间（ms）</t>
-  </si>
-  <si>
     <t>移动范围</t>
   </si>
   <si>
@@ -94,12 +73,6 @@
     <t>prefab</t>
   </si>
   <si>
-    <t>attackProjectile</t>
-  </si>
-  <si>
-    <t>projSpeed</t>
-  </si>
-  <si>
     <t>uiname</t>
   </si>
   <si>
@@ -112,24 +85,9 @@
     <t>type2Id</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>attackRange</t>
-  </si>
-  <si>
     <t>unitId</t>
   </si>
   <si>
-    <t>attacktime</t>
-  </si>
-  <si>
-    <t>allAttacktime</t>
-  </si>
-  <si>
     <t>moveRange</t>
   </si>
   <si>
@@ -154,12 +112,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>string[]</t>
   </si>
   <si>
@@ -169,16 +121,13 @@
     <t>GameAssets/Character/Prefabs/ArcherA.prefab</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Effects/Projectile 13 arraw.prefab</t>
-  </si>
-  <si>
     <t>Fire Archer</t>
   </si>
   <si>
-    <t>ATKBase,MaxHpBase</t>
-  </si>
-  <si>
-    <t>250, 3000</t>
+    <t>ATKBase,MaxHpBase,CRI,CRIDamage</t>
+  </si>
+  <si>
+    <t>250, 3000,20,20</t>
   </si>
   <si>
     <t>1, 2</t>
@@ -190,19 +139,16 @@
     <t>Fire Knight</t>
   </si>
   <si>
-    <t>550, 6500</t>
+    <t>550, 6500,20,20</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/MegaA.prefab</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Effects/Projectile 2 leidian.prefab</t>
-  </si>
-  <si>
     <t>Fire Wizard</t>
   </si>
   <si>
-    <t>800, 10000</t>
+    <t>800, 10000,20,20</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/ArcherB.prefab</t>
@@ -211,7 +157,7 @@
     <t>Frost Archer</t>
   </si>
   <si>
-    <t>260, 3000</t>
+    <t>260, 3000,20,20</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/InfantryB.prefab</t>
@@ -220,7 +166,7 @@
     <t>Frost Knight</t>
   </si>
   <si>
-    <t>600, 7500</t>
+    <t>600, 7500,20,20</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/MegaB.prefab</t>
@@ -229,7 +175,7 @@
     <t>Frost Wizard</t>
   </si>
   <si>
-    <t>1000, 12000</t>
+    <t>1000, 12000,20,20</t>
   </si>
 </sst>
 </file>
@@ -242,7 +188,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +207,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -747,149 +700,161 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1202,658 +1167,458 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:V26"/>
+  <dimension ref="C3:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="52.25" customWidth="1"/>
-    <col min="5" max="5" width="44.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.8796296296296" customWidth="1"/>
-    <col min="9" max="9" width="15.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="11.1296296296296" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.1296296296296" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="9.75" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
-    <col min="16" max="16" width="18.8240740740741" customWidth="1"/>
-    <col min="18" max="18" width="29.537037037037" customWidth="1"/>
-    <col min="19" max="19" width="14.1111111111111" customWidth="1"/>
-    <col min="20" max="20" width="11.1111111111111" customWidth="1"/>
+    <col min="16" max="16" width="18.875" customWidth="1"/>
+    <col min="18" max="18" width="29.5" customWidth="1"/>
+    <col min="19" max="19" width="37.625" customWidth="1"/>
+    <col min="20" max="20" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:22">
+    <row r="3" ht="15" spans="3:16">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="16.2" spans="3:22">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" ht="15" spans="3:16">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" ht="15" spans="3:16">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" ht="16.5" spans="3:15">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1005</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="L6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="1" t="s">
+    </row>
+    <row r="7" ht="16.5" spans="3:15">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1006</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="3:15">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" ht="16.2" spans="3:22">
-      <c r="C5" s="1" t="s">
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1007</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="3:15">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1008</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="3:15">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="3:22">
-      <c r="C6" s="2">
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1009</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="3:15">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6">
+      <c r="I11" s="6">
+        <v>1010</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3000</v>
-      </c>
-      <c r="L6" s="2">
-        <v>250</v>
-      </c>
-      <c r="M6" s="2">
-        <v>10</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1005</v>
-      </c>
-      <c r="O6">
-        <v>150</v>
-      </c>
-      <c r="P6">
-        <v>1333</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
-      </c>
-      <c r="R6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>7</v>
-      </c>
-      <c r="V6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" spans="3:22">
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>6500</v>
-      </c>
-      <c r="L7" s="2">
-        <v>550</v>
-      </c>
-      <c r="M7" s="2">
-        <v>3</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1006</v>
-      </c>
-      <c r="O7">
-        <v>180</v>
-      </c>
-      <c r="P7">
-        <v>1333</v>
-      </c>
-      <c r="Q7">
-        <v>8</v>
-      </c>
-      <c r="R7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>8</v>
-      </c>
-      <c r="V7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="3:22">
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="2">
-        <v>8</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="L8" s="2">
-        <v>800</v>
-      </c>
-      <c r="M8" s="2">
-        <v>12</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1007</v>
-      </c>
-      <c r="O8">
-        <v>250</v>
-      </c>
-      <c r="P8">
-        <v>1333</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>9</v>
-      </c>
-      <c r="V8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="3:22">
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="2">
-        <v>260</v>
-      </c>
-      <c r="M9" s="2">
-        <v>10</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1008</v>
-      </c>
-      <c r="O9">
-        <v>150</v>
-      </c>
-      <c r="P9">
-        <v>1333</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-      <c r="R9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>10</v>
-      </c>
-      <c r="V9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" spans="3:22">
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
-      <c r="J10" s="2">
-        <v>4</v>
-      </c>
-      <c r="K10" s="2">
-        <v>7500</v>
-      </c>
-      <c r="L10" s="2">
-        <v>600</v>
-      </c>
-      <c r="M10" s="2">
-        <v>3</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1009</v>
-      </c>
-      <c r="O10">
-        <v>180</v>
-      </c>
-      <c r="P10">
-        <v>1333</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-      <c r="R10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T10">
-        <v>5</v>
-      </c>
-      <c r="U10">
-        <v>11</v>
-      </c>
-      <c r="V10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="3:22">
-      <c r="C11" s="2">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="2">
-        <v>9</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3</v>
-      </c>
-      <c r="J11" s="2">
-        <v>6</v>
-      </c>
-      <c r="K11" s="2">
-        <v>12000</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="2">
-        <v>12</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1010</v>
-      </c>
-      <c r="O11">
-        <v>250</v>
-      </c>
-      <c r="P11">
-        <v>1333</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11">
-        <v>6</v>
-      </c>
-      <c r="U11">
-        <v>12</v>
-      </c>
-      <c r="V11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" spans="3:14">
-      <c r="C12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" ht="15.6" spans="3:14">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" ht="15.6" spans="3:14">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="4:13">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="7:11">
-      <c r="G16" s="3"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="7:13">
-      <c r="G17" s="3"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="7:13">
-      <c r="G18" s="3"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="7:13">
-      <c r="G19" s="3"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:13">
-      <c r="G20" s="3"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="7:13">
-      <c r="G21" s="3"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="13:13">
-      <c r="M22" s="2"/>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="3:9">
+      <c r="C12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" ht="16.5" spans="3:9">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" ht="16.5" spans="3:9">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" ht="14.25" spans="4:8">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="5"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="3"/>
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1871,7 +1636,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1888,7 +1653,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t>ATKBase,MaxHpBase,CRI,CRIDamage</t>
   </si>
   <si>
-    <t>250, 3000,20,20</t>
+    <t>550, 6000,20,10</t>
   </si>
   <si>
     <t>1, 2</t>
@@ -139,7 +139,7 @@
     <t>Fire Knight</t>
   </si>
   <si>
-    <t>550, 6500,20,20</t>
+    <t>50, 10500,10,10</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/MegaA.prefab</t>
@@ -148,7 +148,7 @@
     <t>Fire Wizard</t>
   </si>
   <si>
-    <t>800, 10000,20,20</t>
+    <t>600, 3000,30,10</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/ArcherB.prefab</t>
@@ -157,7 +157,7 @@
     <t>Frost Archer</t>
   </si>
   <si>
-    <t>260, 3000,20,20</t>
+    <t>560, 7000,20,10</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/InfantryB.prefab</t>
@@ -166,7 +166,7 @@
     <t>Frost Knight</t>
   </si>
   <si>
-    <t>600, 7500,20,20</t>
+    <t>60, 17500,10,10</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/MegaB.prefab</t>
@@ -175,7 +175,7 @@
     <t>Frost Wizard</t>
   </si>
   <si>
-    <t>1000, 12000,20,20</t>
+    <t>700, 5000,30,10</t>
   </si>
 </sst>
 </file>
@@ -1170,9 +1170,9 @@
   <dimension ref="C3:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1185,8 +1185,8 @@
     <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="7.625" customWidth="1"/>
     <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="35.5" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
     <col min="13" max="13" width="9.75" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
     <col min="16" max="16" width="18.875" customWidth="1"/>
@@ -1426,7 +1426,7 @@
         <v>1007</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>31</v>
@@ -1549,7 +1549,7 @@
         <v>1010</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>31</v>

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="26028" windowHeight="12684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,13 +207,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -700,138 +693,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,16 +835,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1170,32 +1160,32 @@
   <dimension ref="C3:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="35.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.3796296296296" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="13.8796296296296" customWidth="1"/>
+    <col min="9" max="9" width="7.62962962962963" customWidth="1"/>
+    <col min="10" max="10" width="11.1296296296296" customWidth="1"/>
     <col min="11" max="11" width="35.5" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
     <col min="13" max="13" width="9.75" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
-    <col min="16" max="16" width="18.875" customWidth="1"/>
+    <col min="16" max="16" width="18.8796296296296" customWidth="1"/>
     <col min="18" max="18" width="29.5" customWidth="1"/>
-    <col min="19" max="19" width="37.625" customWidth="1"/>
-    <col min="20" max="20" width="11.125" customWidth="1"/>
+    <col min="19" max="19" width="37.6296296296296" customWidth="1"/>
+    <col min="20" max="20" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15" spans="3:16">
+    <row r="3" ht="16.2" spans="3:16">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1227,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" ht="15" spans="3:16">
+    <row r="4" ht="16.2" spans="3:16">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1269,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" ht="15" spans="3:16">
+    <row r="5" ht="16.2" spans="3:16">
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1321,7 +1311,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" ht="16.5" spans="3:15">
+    <row r="6" ht="15.6" spans="3:15">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -1362,7 +1352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="3:15">
+    <row r="7" ht="15.6" spans="3:15">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1387,7 +1377,7 @@
       <c r="J7">
         <v>8</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -1403,7 +1393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="3:15">
+    <row r="8" ht="15.6" spans="3:15">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1414,7 +1404,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" s="3">
         <v>6</v>
@@ -1428,7 +1418,7 @@
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1444,7 +1434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="3:15">
+    <row r="9" ht="15.6" spans="3:15">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1469,7 +1459,7 @@
       <c r="J9">
         <v>8</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1485,7 +1475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="3:15">
+    <row r="10" ht="15.6" spans="3:15">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1510,7 +1500,7 @@
       <c r="J10">
         <v>6</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -1526,7 +1516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="3:15">
+    <row r="11" ht="15.6" spans="3:15">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1537,7 +1527,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
@@ -1551,7 +1541,7 @@
       <c r="J11">
         <v>4</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1567,7 +1557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="3:9">
+    <row r="12" ht="15.6" spans="3:9">
       <c r="C12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1575,7 +1565,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" ht="16.5" spans="3:9">
+    <row r="13" ht="15.6" spans="3:9">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1584,7 +1574,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" ht="16.5" spans="3:9">
+    <row r="14" ht="15.6" spans="3:9">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1593,7 +1583,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" ht="14.25" spans="4:8">
+    <row r="15" spans="4:8">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="G15" s="3"/>
@@ -1636,7 +1626,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1653,7 +1643,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/ChampionConfig.xlsx
+++ b/Excel/ChampionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26028" windowHeight="12684"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,10 @@
     <t>Fire Archer</t>
   </si>
   <si>
-    <t>ATKBase,MaxHpBase,CRI,CRIDamage</t>
-  </si>
-  <si>
-    <t>550, 6000,20,10</t>
+    <t>ATKBase,MaxHpBase,CRI,CRIDamage,NorDef,MagDef</t>
+  </si>
+  <si>
+    <t>550, 7000,20,10,10,5</t>
   </si>
   <si>
     <t>1, 2</t>
@@ -139,7 +139,7 @@
     <t>Fire Knight</t>
   </si>
   <si>
-    <t>50, 10500,10,10</t>
+    <t>150, 10500,10,10,250,10</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/MegaA.prefab</t>
@@ -148,7 +148,7 @@
     <t>Fire Wizard</t>
   </si>
   <si>
-    <t>600, 3000,30,10</t>
+    <t>800, 5000,30,10,5,5</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/ArcherB.prefab</t>
@@ -157,7 +157,7 @@
     <t>Frost Archer</t>
   </si>
   <si>
-    <t>560, 7000,20,10</t>
+    <t>560, 8000,20,10,10,5</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/InfantryB.prefab</t>
@@ -166,7 +166,7 @@
     <t>Frost Knight</t>
   </si>
   <si>
-    <t>60, 17500,10,10</t>
+    <t>160, 17500,10,10,270,10</t>
   </si>
   <si>
     <t>GameAssets/Character/Prefabs/MegaB.prefab</t>
@@ -175,7 +175,7 @@
     <t>Frost Wizard</t>
   </si>
   <si>
-    <t>700, 5000,30,10</t>
+    <t>900, 6000,30,10,5,5</t>
   </si>
 </sst>
 </file>
@@ -1160,32 +1160,32 @@
   <dimension ref="C3:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="35.25" customWidth="1"/>
-    <col min="5" max="5" width="16.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="16.3833333333333" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.8796296296296" customWidth="1"/>
-    <col min="9" max="9" width="7.62962962962963" customWidth="1"/>
-    <col min="10" max="10" width="11.1296296296296" customWidth="1"/>
-    <col min="11" max="11" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="13.8833333333333" customWidth="1"/>
+    <col min="9" max="9" width="7.63333333333333" customWidth="1"/>
+    <col min="10" max="10" width="11.1333333333333" customWidth="1"/>
+    <col min="11" max="11" width="49.625" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
     <col min="13" max="13" width="9.75" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
-    <col min="16" max="16" width="18.8796296296296" customWidth="1"/>
+    <col min="16" max="16" width="18.8833333333333" customWidth="1"/>
     <col min="18" max="18" width="29.5" customWidth="1"/>
-    <col min="19" max="19" width="37.6296296296296" customWidth="1"/>
-    <col min="20" max="20" width="11.1296296296296" customWidth="1"/>
+    <col min="19" max="19" width="37.6333333333333" customWidth="1"/>
+    <col min="20" max="20" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:16">
+    <row r="3" ht="15" spans="3:16">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" ht="16.2" spans="3:16">
+    <row r="4" ht="15" spans="3:16">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" ht="16.2" spans="3:16">
+    <row r="5" ht="15" spans="3:16">
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" ht="15.6" spans="3:15">
+    <row r="6" ht="16.5" spans="3:15">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="3:15">
+    <row r="7" ht="16.5" spans="3:15">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="3:15">
+    <row r="8" ht="16.5" spans="3:15">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="3:15">
+    <row r="9" ht="16.5" spans="3:15">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="3:15">
+    <row r="10" ht="16.5" spans="3:15">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="3:15">
+    <row r="11" ht="16.5" spans="3:15">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="3:9">
+    <row r="12" ht="16.5" spans="3:9">
       <c r="C12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1565,7 +1565,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" ht="15.6" spans="3:9">
+    <row r="13" ht="16.5" spans="3:9">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1574,7 +1574,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" ht="15.6" spans="3:9">
+    <row r="14" ht="16.5" spans="3:9">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1583,7 +1583,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" ht="14.25" spans="4:8">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="G15" s="3"/>
@@ -1626,7 +1626,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1643,7 +1643,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
